--- a/H1299_143B_prot-nucl-quant/BCA-Prot-quant/master_results.xlsx
+++ b/H1299_143B_prot-nucl-quant/BCA-Prot-quant/master_results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/H1299_143B_prot-nucl-quant/BCA-Prot-quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85E422C-9A55-1041-81FA-113066FF2939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29310DEB-AD85-8445-9639-18A24CBD8337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6100" windowWidth="28800" windowHeight="11720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4980" windowWidth="28800" windowHeight="12840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="143B-Nuc-RFP" sheetId="1" r:id="rId1"/>
-    <sheet name="H1299-Nuc-RFP" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="H1299-Nuc-RFP" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>Average values for cell counts</t>
   </si>
@@ -77,6 +78,12 @@
   </si>
   <si>
     <t>Based on rough estimates (A549, smaller cells), dry cell mass ~400pg, 75% dryweight is protein = 300pg per cell.</t>
+  </si>
+  <si>
+    <t>cell_line</t>
+  </si>
+  <si>
+    <t>2w</t>
   </si>
 </sst>
 </file>
@@ -375,7 +382,7 @@
   </sheetPr>
   <dimension ref="A2:Z60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="111" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="111" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -823,6 +830,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329BF55D-FA71-0D40-95FE-63DB20E6DC8F}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3771772-AB3A-6148-A6DF-D3FD2A32DBD7}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
